--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail7 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4181,28 +4181,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>1.688483236401161e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.914325677234123</v>
+        <v>1.094258115451716e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.065717156026142</v>
+        <v>2.570896728083449e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.094258115451716e-06</v>
+        <v>0.07479979971177421</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.570896728083449e-06</v>
+        <v>0.3202992697764655</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07479979971177421</v>
+        <v>0.1079452619715606</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3202992697764655</v>
+        <v>1.903178648295579</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1079452619715606</v>
+        <v>2.43734296915459</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.919108143492095</v>
+        <v>4.041050798859137</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.43734296915459</v>
+        <v>1.418375173445644e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.041050798859137</v>
+        <v>1168483161.472961</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.418375173445644e-16</v>
+        <v>1.031064244357556e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1168483161.472961</v>
+        <v>193.6582654431316</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.031064244357556e-07</v>
+        <v>0.0001162951993140119</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>193.6582654431316</v>
+        <v>7.50217514790453</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001162951993140119</v>
+        <v>1.261139377257984</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.50217514790453</v>
+        <v>0.006545399900523394</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.261139377257984</v>
+        <v>3.343879771855513</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006545399900523394</v>
+        <v>0.9602374221808918</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.343879771855513</v>
+        <v>1.329683854456324</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9602374221808918</v>
+        <v>48</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.329683854456324</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.583209733126591</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>1.38787921706523e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.9608346507759092</v>
+        <v>8.11588605612224e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.89027829674526</v>
+        <v>2.581002758760771e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.11588605612224e-07</v>
+        <v>0.0566649878457165</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.581002758760771e-06</v>
+        <v>0.2950765777511881</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0566649878457165</v>
+        <v>0.09008559835591895</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2950765777511881</v>
+        <v>1.899903011721767</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09008559835591895</v>
+        <v>2.534678724085625</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.914259223955225</v>
+        <v>3.94040562745531</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.534678724085625</v>
+        <v>1.491756295902651e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.94040562745531</v>
+        <v>1091440048.008587</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.491756295902651e-16</v>
+        <v>1.102217452229753e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1091440048.008587</v>
+        <v>177.7041826163456</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.102217452229753e-07</v>
+        <v>0.000124906144063462</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>177.7041826163456</v>
+        <v>8.53246339416202</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000124906144063462</v>
+        <v>1.238060294338453</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.53246339416202</v>
+        <v>0.009093533459263886</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.238060294338453</v>
+        <v>3.141614308285951</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009093533459263886</v>
+        <v>0.9601900938307348</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.141614308285951</v>
+        <v>1.358476328577605</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9601900938307348</v>
+        <v>48</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.358476328577605</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5431237045922789</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>1.229609261503074e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2760463338805061</v>
+        <v>6.036963949158134e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.600687921594381</v>
+        <v>2.587014441420006e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.036963949158134e-07</v>
+        <v>0.03543030360561447</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.587014441420006e-06</v>
+        <v>0.25623322980082</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03543030360561447</v>
+        <v>0.06677407903044268</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.25623322980082</v>
+        <v>1.895618893130322</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06677407903044268</v>
+        <v>2.446735634075235</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.905979879054823</v>
+        <v>3.883744904890631</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.446735634075235</v>
+        <v>1.535600863608471e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.883744904890631</v>
+        <v>1026319345.083813</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.535600863608471e-16</v>
+        <v>1.164944763254285e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1026319345.083813</v>
+        <v>161.7496604577939</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.164944763254285e-07</v>
+        <v>0.0001281827257068733</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>161.7496604577939</v>
+        <v>8.810516667973477</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001281827257068733</v>
+        <v>1.198682824273158</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.810516667973477</v>
+        <v>0.009950210226713881</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.198682824273158</v>
+        <v>3.079917853485238</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009950210226713881</v>
+        <v>0.9598155200689568</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.079917853485238</v>
+        <v>1.383593776490815</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9598155200689568</v>
+        <v>55</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.383593776490815</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5825288053426785</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>1.164929797743835e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.002662573342589167</v>
+        <v>4.483466214529098e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.333763193784311</v>
+        <v>2.589981248507285e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.483466214529098e-07</v>
+        <v>0.01471988102468458</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.589981248507285e-06</v>
+        <v>0.2108175555222112</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01471988102468458</v>
+        <v>0.04457344336700326</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2108175555222112</v>
+        <v>1.889191316378171</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04457344336700326</v>
+        <v>2.312387191971801</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.899564795926805</v>
+        <v>3.842358121070315</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.312387191971801</v>
+        <v>1.568859530776173e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.842358121070315</v>
+        <v>1001311664.520605</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.568859530776173e-16</v>
+        <v>1.195548645044192e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1001311664.520605</v>
+        <v>157.2977864710889</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.195548645044192e-07</v>
+        <v>0.0001215221356300842</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>157.2977864710889</v>
+        <v>8.223675513805672</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001215221356300842</v>
+        <v>1.171958988069032</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.223675513805672</v>
+        <v>0.008218400940160752</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.171958988069032</v>
+        <v>3.269862960269434</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008218400940160752</v>
+        <v>0.9606675246012275</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.269862960269434</v>
+        <v>1.366897400071648</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9606675246012275</v>
+        <v>55</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.366897400071648</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.6743326387815483</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>1.153428563040125e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.03428405073296117</v>
+        <v>3.499535245966293e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.398179585385849</v>
+        <v>2.590624063216182e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.499535245966293e-07</v>
+        <v>-0.002863187218124202</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.590624063216182e-06</v>
+        <v>0.1667550571457055</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.002863187218124202</v>
+        <v>0.02776311523192454</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1667550571457055</v>
+        <v>1.892967991613365</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02776311523192454</v>
+        <v>2.247451699780774</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.901762214926688</v>
+        <v>3.857184307557707</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.247451699780774</v>
+        <v>1.556821993279793e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.857184307557707</v>
+        <v>1017448493.247306</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.556821993279793e-16</v>
+        <v>1.17956593175899e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1017448493.247306</v>
+        <v>161.1624363679811</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.17956593175899e-07</v>
+        <v>0.0001186676581753142</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>161.1624363679811</v>
+        <v>6.96034337768591</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001186676581753142</v>
+        <v>1.635325344755007</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.96034337768591</v>
+        <v>0.005749018453993116</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.635325344755007</v>
+        <v>3.516396239911146</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005749018453993116</v>
+        <v>0.9618145896253988</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.516396239911146</v>
+        <v>1.385449936225786</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9618145896253988</v>
+        <v>55</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.385449936225786</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.7016520804002008</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>1.166982843588898e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.02098955508296899</v>
+        <v>3.553693699832411e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.401249627475853</v>
+        <v>2.58945448876897e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.553693699832411e-07</v>
+        <v>-0.01657899815963119</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.58945448876897e-06</v>
+        <v>0.1295053531527393</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01657899815963119</v>
+        <v>0.01701654245623563</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1295053531527393</v>
+        <v>1.888918951783385</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01701654245623563</v>
+        <v>2.094723725401134</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.896162773579993</v>
+        <v>4.612510478964778</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.094723725401134</v>
+        <v>1.31338405980625e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.612510478964778</v>
+        <v>1253134316.87099</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.31338405980625e-16</v>
+        <v>9.562421250404364e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1253134316.87099</v>
+        <v>206.2466900598268</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.562421250404364e-08</v>
+        <v>0.0001241884125459616</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>206.2466900598268</v>
+        <v>6.996021686016917</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001241884125459616</v>
+        <v>1.78110815353925</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.996021686016917</v>
+        <v>0.00607831733330555</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.78110815353925</v>
+        <v>3.525304727898369</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00607831733330555</v>
+        <v>0.9617604712363272</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.525304727898369</v>
+        <v>1.372081739673621</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9617604712363272</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.372081739673621</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.6259895877635906</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>1.188994961401989e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.02727897772411887</v>
+        <v>3.618873396385902e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.428715295656631</v>
+        <v>2.586867017287503e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.618873396385902e-07</v>
+        <v>-0.02665231176392808</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.586867017287503e-06</v>
+        <v>0.1016359775951184</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02665231176392808</v>
+        <v>0.01102564990081967</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1016359775951184</v>
+        <v>1.889056046759011</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01102564990081967</v>
+        <v>2.432751443737542</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.900419022466938</v>
+        <v>4.683078309340381</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.432751443737542</v>
+        <v>9.743336584963421e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.683078309340381</v>
+        <v>1677583828.580276</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.743336584963421e-17</v>
+        <v>7.144422974094948e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1677583828.580276</v>
+        <v>274.2055037800453</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.144422974094948e-08</v>
+        <v>0.0001223710170729491</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>274.2055037800453</v>
+        <v>8.65004411555563</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001223710170729491</v>
+        <v>1.239313318240077</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.65004411555563</v>
+        <v>0.009156198818630504</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.239313318240077</v>
+        <v>3.394573465982536</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009156198818630504</v>
+        <v>0.9627721469274876</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.394573465982536</v>
+        <v>1.314141500265081</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9627721469274876</v>
+        <v>55</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.314141500265081</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.6589436451229556</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>1.211156996000552e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.05655070792212702</v>
+        <v>3.687156989949956e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.449583053604951</v>
+        <v>2.583221822554468e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.687156989949956e-07</v>
+        <v>-0.03360398495050369</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.583221822554468e-06</v>
+        <v>0.08368242517293172</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03360398495050369</v>
+        <v>0.008124886028454559</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08368242517293172</v>
+        <v>1.895774914974821</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008124886028454559</v>
+        <v>2.215489086479602</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.914739361021031</v>
+        <v>4.80978034548002</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.215489086479602</v>
+        <v>9.23676849669832e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.80978034548002</v>
+        <v>1775147100.506533</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.23676849669832e-17</v>
+        <v>6.785692163350325e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1775147100.506533</v>
+        <v>291.0641744808281</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.785692163350325e-08</v>
+        <v>0.000150205965772944</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>291.0641744808281</v>
+        <v>11.00386956746994</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000150205965772944</v>
+        <v>1.158572294542187</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.00386956746994</v>
+        <v>0.01818771121425995</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.158572294542187</v>
+        <v>3.008700588303926</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01818771121425995</v>
+        <v>0.9615266590053437</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.008700588303926</v>
+        <v>1.298840483008377</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9615266590053437</v>
+        <v>100</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.298840483008377</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6846964699675331</v>
       </c>
     </row>
@@ -4988,72 +4928,66 @@
         <v>1.230165356491487e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09835826961334737</v>
+        <v>3.756470153956743e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.449354108413216</v>
+        <v>2.578786403387717e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.756470153956743e-07</v>
+        <v>-0.03881632769249214</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.578786403387717e-06</v>
+        <v>0.0710258570980429</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03881632769249214</v>
+        <v>0.00654695223864961</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0710258570980429</v>
+        <v>1.896547941307044</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00654695223864961</v>
+        <v>2.46252892133248</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.914509772379944</v>
+        <v>5.007053380049481</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.46252892133248</v>
+        <v>8.523267184108653e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.007053380049481</v>
+        <v>1985632509.175662</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>8.523267184108653e-17</v>
+        <v>6.078698325350184e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1985632509.175662</v>
+        <v>336.0499629785102</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.078698325350184e-08</v>
+        <v>0.0001724151095248623</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>336.0499629785102</v>
+        <v>10.97491222799139</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001724151095248623</v>
+        <v>1.183002720946835</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.97491222799139</v>
+        <v>0.02076717552885189</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.183002720946835</v>
+        <v>2.900741666630658</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02076717552885189</v>
+        <v>0.9607774821263551</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.900741666630658</v>
+        <v>1.285833228622729</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9607774821263551</v>
+        <v>120</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.285833228622729</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.6640653669486625</v>
       </c>
     </row>
@@ -5068,72 +5002,66 @@
         <v>1.244570084674362e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1446793527980903</v>
+        <v>3.828995818882371e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.427495073839952</v>
+        <v>2.573694161252005e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.828995818882371e-07</v>
+        <v>-0.04333208127021913</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.573694161252005e-06</v>
+        <v>0.06016829640404001</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04333208127021913</v>
+        <v>0.005494815138312933</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06016829640404001</v>
+        <v>1.896450206558</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005494815138312933</v>
+        <v>2.617671022966728</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.918049832333864</v>
+        <v>5.01736414327829</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.617671022966728</v>
+        <v>8.488272279000611e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.01736414327829</v>
+        <v>1973042484.395302</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.488272279000611e-17</v>
+        <v>6.113847207243542e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1973042484.395302</v>
+        <v>330.4396667870997</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.113847207243542e-08</v>
+        <v>0.0001647417037843444</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>330.4396667870997</v>
+        <v>9.282955769954434</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001647417037843444</v>
+        <v>1.335386776343521</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.282955769954434</v>
+        <v>0.01419633096247313</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.335386776343521</v>
+        <v>3.081312917657528</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01419633096247313</v>
+        <v>0.9610980024744381</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.081312917657528</v>
+        <v>1.231924060486543</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9610980024744381</v>
+        <v>109</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.231924060486543</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.6453902896174881</v>
       </c>
     </row>
@@ -5148,72 +5076,66 @@
         <v>1.253560402356669e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1895151448447139</v>
+        <v>3.903546787748033e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.389150163173073</v>
+        <v>2.568027417068589e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.903546787748033e-07</v>
+        <v>-0.0472376521060159</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.568027417068589e-06</v>
+        <v>0.05118386153622431</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0472376521060159</v>
+        <v>0.004849329148307795</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05118386153622431</v>
+        <v>1.89318548258311</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004849329148307795</v>
+        <v>2.560658133362783</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.917105784636196</v>
+        <v>5.085489671516347</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.560658133362783</v>
+        <v>8.262376716092151e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.085489671516347</v>
+        <v>1977869267.64911</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>8.262376716092151e-17</v>
+        <v>6.082962540539938e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1977869267.64911</v>
+        <v>323.221437322038</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.082962540539938e-08</v>
+        <v>0.0001525776151223498</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>323.221437322038</v>
+        <v>8.38403362500293</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001525776151223498</v>
+        <v>1.447826797000362</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.38403362500293</v>
+        <v>0.01072498874705886</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.447826797000362</v>
+        <v>3.226176068157146</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01072498874705886</v>
+        <v>0.9592887287883096</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.226176068157146</v>
+        <v>1.231715076462473</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9592887287883096</v>
+        <v>133</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.231715076462473</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.6288616870767209</v>
       </c>
     </row>
@@ -5228,72 +5150,66 @@
         <v>1.257025850428672e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2285580916706764</v>
+        <v>3.976898249767585e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.342598249018657</v>
+        <v>2.561884691537068e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.976898249767585e-07</v>
+        <v>-0.05039144330700511</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.561884691537068e-06</v>
+        <v>0.04487157074479817</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05039144330700511</v>
+        <v>0.004552248238803398</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04487157074479817</v>
+        <v>1.901827643998179</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.004552248238803398</v>
+        <v>2.309005677434068</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.929512623585421</v>
+        <v>5.213073640635948</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.309005677434068</v>
+        <v>7.862901330402385e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.213073640635948</v>
+        <v>2044490416.32446</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.862901330402385e-17</v>
+        <v>5.893439972237815e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2044490416.32446</v>
+        <v>328.6646414088318</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.893439972237815e-08</v>
+        <v>0.0001385398467421994</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>328.6646414088318</v>
+        <v>9.619751249679288</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001385398467421994</v>
+        <v>1.209186625359514</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.619751249679288</v>
+        <v>0.01282042395578681</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.209186625359514</v>
+        <v>3.252650513095767</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01282042395578681</v>
+        <v>0.960662881526069</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.252650513095767</v>
+        <v>1.22986602927439</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.960662881526069</v>
+        <v>139</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.22986602927439</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.7581306557017145</v>
       </c>
     </row>
@@ -5308,72 +5224,66 @@
         <v>1.256052028211276e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2606792437256613</v>
+        <v>4.045836450993707e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.294394800946562</v>
+        <v>2.555414694936978e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.045836450993707e-07</v>
+        <v>-0.05237973717775173</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.555414694936978e-06</v>
+        <v>0.04237913456736035</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05237973717775173</v>
+        <v>0.00453973647789995</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04237913456736035</v>
+        <v>1.905910355050215</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.00453973647789995</v>
+        <v>2.446159568345413</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.932052589023763</v>
+        <v>5.330451329103832</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.446159568345413</v>
+        <v>7.520428403972021e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.330451329103832</v>
+        <v>2052466132.493959</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.520428403972021e-17</v>
+        <v>5.84585362148027e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2052466132.493959</v>
+        <v>316.8068623421283</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.84585362148027e-08</v>
+        <v>0.0001446608834439303</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>316.8068623421283</v>
+        <v>11.40339231482949</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001446608834439303</v>
+        <v>1.108709450556466</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.40339231482949</v>
+        <v>0.01881131884103318</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.108709450556466</v>
+        <v>3.152950706033347</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01881131884103318</v>
+        <v>0.9601525343187847</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.152950706033347</v>
+        <v>1.232953362713196</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9601525343187847</v>
+        <v>139</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.232953362713196</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.9547411725574121</v>
       </c>
     </row>
@@ -5388,72 +5298,66 @@
         <v>1.252049072826287e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2873340228035323</v>
+        <v>4.107232675965792e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.246509602687683</v>
+        <v>2.548757312749922e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.107232675965792e-07</v>
+        <v>-0.05371783300663995</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.548757312749922e-06</v>
+        <v>0.04141518492974995</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05371783300663995</v>
+        <v>0.00460105052619378</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04141518492974995</v>
+        <v>1.905045923239553</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00460105052619378</v>
+        <v>2.580136392072133</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.933844732838772</v>
+        <v>5.150265979661864</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.580136392072133</v>
+        <v>8.055847366231381e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.150265979661864</v>
+        <v>1927800658.273075</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.055847366231381e-17</v>
+        <v>6.220506519564197e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1927800658.273075</v>
+        <v>299.3887503499004</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.220506519564197e-08</v>
+        <v>0.0001607604778249471</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>299.3887503499004</v>
+        <v>11.12391402118924</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001607604778249471</v>
+        <v>1.175258500429907</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.12391402118924</v>
+        <v>0.01989273674288239</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.175258500429907</v>
+        <v>3.28352784401164</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01989273674288239</v>
+        <v>0.9618478681141195</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.28352784401164</v>
+        <v>1.200543093850227</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9618478681141195</v>
+        <v>124</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.200543093850227</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.114237733587288</v>
       </c>
     </row>
@@ -5468,72 +5372,66 @@
         <v>1.245205251720748e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3090568087640569</v>
+        <v>4.15728878334041e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.201221360728707</v>
+        <v>2.541968875608873e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.15728878334041e-07</v>
+        <v>-0.05501269409098151</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.541968875608873e-06</v>
+        <v>0.04056338102152392</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05501269409098151</v>
+        <v>0.004672050057077904</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04056338102152392</v>
+        <v>1.906082700255507</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004672050057077904</v>
+        <v>2.293076938437367</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.936227388985032</v>
+        <v>4.85318668214302</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.293076938437367</v>
+        <v>9.072282209888178e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.85318668214302</v>
+        <v>1720954195.749419</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.072282209888178e-17</v>
+        <v>6.975860931951382e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1720954195.749419</v>
+        <v>268.6922711189152</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.975860931951382e-08</v>
+        <v>0.0001711827609938036</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>268.6922711189152</v>
+        <v>9.697425210796325</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001711827609938036</v>
+        <v>1.399593840508474</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.697425210796325</v>
+        <v>0.01609803638198752</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.399593840508474</v>
+        <v>3.378368808282689</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01609803638198752</v>
+        <v>0.9622220072917309</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.378368808282689</v>
+        <v>1.214743253529418</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9622220072917309</v>
+        <v>124</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.214743253529418</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.300334713674481</v>
       </c>
     </row>
@@ -5548,72 +5446,66 @@
         <v>1.234622005978484e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3244799135325493</v>
+        <v>4.191354907994857e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.164845301898606</v>
+        <v>2.535054371392792e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.191354907994857e-07</v>
+        <v>-0.056454885935568</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.535054371392792e-06</v>
+        <v>0.03952392806916322</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.056454885935568</v>
+        <v>0.004749650208798519</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03952392806916322</v>
+        <v>1.907726164871425</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004749650208798519</v>
+        <v>2.17389028932451</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.938889058027992</v>
+        <v>4.759813467352546</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.17389028932451</v>
+        <v>1.010290761659186e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.759813467352546</v>
+        <v>1560526831.93066</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.010290761659186e-16</v>
+        <v>7.704267147814835e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1560526831.93066</v>
+        <v>246.0304508691275</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.704267147814835e-08</v>
+        <v>0.000153480052640037</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>246.0304508691275</v>
+        <v>9.56153629604208</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000153480052640037</v>
+        <v>1.322952430299041</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.56153629604208</v>
+        <v>0.01403160322125342</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.322952430299041</v>
+        <v>3.503967553070135</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01403160322125342</v>
+        <v>0.9622047902894766</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.503967553070135</v>
+        <v>1.184604454619778</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9622047902894766</v>
+        <v>124</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.184604454619778</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.580292330404049</v>
       </c>
     </row>
@@ -5990,7 +5882,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352154969375262</v>
+        <v>1.341901813572298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.53143761297873</v>
@@ -6079,7 +5971,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.365285060419255</v>
+        <v>1.352342311613082</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.499052700597331</v>
@@ -6168,7 +6060,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.373024973529015</v>
+        <v>1.360307877235502</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.30749084818998</v>
@@ -6257,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.379365880082981</v>
+        <v>1.365556800484013</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.540264330881545</v>
@@ -6346,7 +6238,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.384402979081887</v>
+        <v>1.369467296020308</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.252669642735909</v>
@@ -6435,7 +6327,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.382792640646638</v>
+        <v>1.37434983905088</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.361255099338526</v>
@@ -6524,7 +6416,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.398013500016258</v>
+        <v>1.388825040185157</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.432837427655812</v>
@@ -6613,7 +6505,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.392906125096294</v>
+        <v>1.384060374946124</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.498858667801674</v>
@@ -6702,7 +6594,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.401943242724426</v>
+        <v>1.394036695483528</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.502044247029091</v>
@@ -6791,7 +6683,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.420308458120118</v>
+        <v>1.407356758997776</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.501907214783953</v>
@@ -6880,7 +6772,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.432356736261055</v>
+        <v>1.417967775329299</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.406844804921949</v>
@@ -6969,7 +6861,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.464610074133415</v>
+        <v>1.450202699701801</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.496714592757902</v>
@@ -7058,7 +6950,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.472698591954162</v>
+        <v>1.454619957248012</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.391752086649462</v>
@@ -7147,7 +7039,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.464451219372074</v>
+        <v>1.445286476425719</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.200399764309277</v>
@@ -7236,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.468246239874281</v>
+        <v>1.447247865382415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.324599663859272</v>
@@ -7325,7 +7217,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.477526076447208</v>
+        <v>1.4448381879023</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.41604390438401</v>
@@ -7414,7 +7306,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.485141535310432</v>
+        <v>1.446369137916069</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.036707742483617</v>
@@ -7503,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.491032321745651</v>
+        <v>1.445186259720449</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.444247371157531</v>
@@ -7592,7 +7484,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516153532102505</v>
+        <v>1.462121623829499</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.422282713407571</v>
@@ -7681,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.507380170978615</v>
+        <v>1.450827210872645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.432090223651827</v>
@@ -7770,7 +7662,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.512166965980866</v>
+        <v>1.456356904789186</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.441019885733143</v>
@@ -7859,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.519795316793603</v>
+        <v>1.462637051586861</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.375316108083175</v>
@@ -7948,7 +7840,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.514142158308664</v>
+        <v>1.460655158923053</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.349960186852178</v>
@@ -8037,7 +7929,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.515124288047347</v>
+        <v>1.464119503305386</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.403749053526024</v>
@@ -8126,7 +8018,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.506118792593241</v>
+        <v>1.454681985623628</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.44203397650371</v>
@@ -8215,7 +8107,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.490459360657933</v>
+        <v>1.442210830619101</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.431968221590752</v>
@@ -8304,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471910951058787</v>
+        <v>1.421981352538032</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.487179495681228</v>
@@ -8393,7 +8285,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.47079788126401</v>
+        <v>1.415807127170821</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.330988545183179</v>
@@ -8482,7 +8374,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.449670403372517</v>
+        <v>1.398531263761065</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.385487299002363</v>
@@ -8571,7 +8463,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.434186511273823</v>
+        <v>1.384898301689085</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.368931955123736</v>
@@ -8660,7 +8552,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.407543042984444</v>
+        <v>1.364684611938728</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.431454431420989</v>
@@ -8749,7 +8641,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.423879648467009</v>
+        <v>1.379472037243338</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.407803587944894</v>
@@ -8838,7 +8730,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.40531209393707</v>
+        <v>1.367247726072998</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.314511710388795</v>
@@ -8927,7 +8819,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.40901419241822</v>
+        <v>1.372163760730736</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.37959674555838</v>
@@ -9016,7 +8908,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.41449818751083</v>
+        <v>1.378316502973375</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.653827836874946</v>
@@ -9105,7 +8997,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.391406907132561</v>
+        <v>1.353580083456725</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.503680447460816</v>
@@ -9194,7 +9086,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.380957302343592</v>
+        <v>1.350194122344377</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.458550445545749</v>
@@ -9283,7 +9175,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.363925640673769</v>
+        <v>1.334843928417626</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.39416854414245</v>
@@ -9372,7 +9264,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.345262343672198</v>
+        <v>1.315226839527253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.420307882320465</v>
@@ -9461,7 +9353,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.353391392356098</v>
+        <v>1.328212065714057</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.449381605395406</v>
@@ -9550,7 +9442,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.34633894391716</v>
+        <v>1.324757380066819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.479913257621396</v>
@@ -9639,7 +9531,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.361019715041919</v>
+        <v>1.339847126385079</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.374659109656492</v>
@@ -9728,7 +9620,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.362114376225825</v>
+        <v>1.337919464803114</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.459178262563229</v>
@@ -9817,7 +9709,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.376415142674214</v>
+        <v>1.349452561867778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.428037445738031</v>
@@ -9906,7 +9798,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.380007133138663</v>
+        <v>1.350223067560446</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.384016523168832</v>
@@ -9995,7 +9887,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.385000124017037</v>
+        <v>1.35598839429016</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.321033686257221</v>
@@ -10084,7 +9976,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.368456125039508</v>
+        <v>1.33907797695094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.42414637269996</v>
@@ -10173,7 +10065,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.367363377530042</v>
+        <v>1.341873678972793</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.458448810485736</v>
@@ -10262,7 +10154,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.348049758441097</v>
+        <v>1.322419519910302</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.188291461164297</v>
@@ -10351,7 +10243,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.339219005766956</v>
+        <v>1.317156028238043</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.308998595607243</v>
@@ -10440,7 +10332,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.360799634250685</v>
+        <v>1.338124244153261</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.328966113232695</v>
@@ -10529,7 +10421,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.350020825315106</v>
+        <v>1.328593311361649</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.375819367517696</v>
@@ -10618,7 +10510,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.375496850258914</v>
+        <v>1.352274321185315</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.432197143025067</v>
@@ -10707,7 +10599,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.393504960946658</v>
+        <v>1.366234761631474</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.352542967825351</v>
@@ -10796,7 +10688,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.399601772440771</v>
+        <v>1.368517890372299</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.407594368862288</v>
@@ -10885,7 +10777,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.411573894171535</v>
+        <v>1.374294206439864</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.32447743020043</v>
@@ -10974,7 +10866,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.413805933107059</v>
+        <v>1.374110872867738</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.326359009900796</v>
@@ -11063,7 +10955,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.429281371045647</v>
+        <v>1.387558338258448</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.343645402485184</v>
@@ -11152,7 +11044,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.420207007091398</v>
+        <v>1.38916322627813</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.408800979117055</v>
@@ -11241,7 +11133,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.450691902277079</v>
+        <v>1.418511669899715</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.385235908711651</v>
@@ -11330,7 +11222,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.44586102571353</v>
+        <v>1.414373071886146</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.306997706095018</v>
@@ -11616,7 +11508,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.715239959607118</v>
+        <v>1.695799881611736</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.862412680513209</v>
@@ -11705,7 +11597,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.736205482922262</v>
+        <v>1.711597186580326</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.969140715002247</v>
@@ -11794,7 +11686,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.745512147119134</v>
+        <v>1.719501183164529</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.786688813521073</v>
@@ -11883,7 +11775,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.741038489608217</v>
+        <v>1.712610209825397</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.863737928359487</v>
@@ -11972,7 +11864,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.749902029624048</v>
+        <v>1.721511733830058</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.967833357911892</v>
@@ -12061,7 +11953,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745639808077287</v>
+        <v>1.715621543706955</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.913186971054544</v>
@@ -12150,7 +12042,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.750267949428079</v>
+        <v>1.716264183067495</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.855082519564871</v>
@@ -12239,7 +12131,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.750694778745535</v>
+        <v>1.716657213611939</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.898925221206441</v>
@@ -12328,7 +12220,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.752186475546962</v>
+        <v>1.721683147155225</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.90537115539264</v>
@@ -12417,7 +12309,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.749277360509271</v>
+        <v>1.718528254508463</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.043089163565913</v>
@@ -12506,7 +12398,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.758701468219985</v>
+        <v>1.724488078473558</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.01824039018553</v>
@@ -12595,7 +12487,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.758507677179433</v>
+        <v>1.722026352584839</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.775470930403794</v>
@@ -12684,7 +12576,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.739143768058788</v>
+        <v>1.704261704818791</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.701151801106512</v>
@@ -12773,7 +12665,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.715712821020302</v>
+        <v>1.687549768502923</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.730664561016898</v>
@@ -12862,7 +12754,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.716616151348402</v>
+        <v>1.682501651494291</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.804804301474331</v>
@@ -12951,7 +12843,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.663905188651428</v>
+        <v>1.62665927843357</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.050305743273228</v>
@@ -13040,7 +12932,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635368010638575</v>
+        <v>1.598950228275984</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.971882612927551</v>
@@ -13129,7 +13021,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.626422461382904</v>
+        <v>1.587014801349599</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.066277067813142</v>
@@ -13218,7 +13110,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.620432284460052</v>
+        <v>1.579495138633887</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.146920803247697</v>
@@ -13307,7 +13199,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.611269088207067</v>
+        <v>1.568295218945246</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.085593409370123</v>
@@ -13396,7 +13288,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.609221738902461</v>
+        <v>1.566386110200588</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.949746960387755</v>
@@ -13485,7 +13377,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.60625533926752</v>
+        <v>1.56843525593001</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.157255537497855</v>
@@ -13574,7 +13466,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.605694857279512</v>
+        <v>1.563725081141637</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.069061588274469</v>
@@ -13663,7 +13555,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.600684528819054</v>
+        <v>1.561158142615248</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.899472312435254</v>
@@ -13752,7 +13644,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576888536841456</v>
+        <v>1.539212028490006</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.824075352816092</v>
@@ -13841,7 +13733,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.56531634389608</v>
+        <v>1.531453239843105</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.02638857893556</v>
@@ -13930,7 +13822,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567427986600573</v>
+        <v>1.527907915772958</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.518102013462646</v>
@@ -14019,7 +13911,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562880889996292</v>
+        <v>1.522520053766574</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.961737383191064</v>
@@ -14108,7 +14000,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571172072331447</v>
+        <v>1.528096969634684</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.032233501952646</v>
@@ -14197,7 +14089,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559731720088726</v>
+        <v>1.522077465832654</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.973708308210004</v>
@@ -14286,7 +14178,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553194933801424</v>
+        <v>1.516121996824475</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.934870753801724</v>
@@ -14375,7 +14267,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572985143590831</v>
+        <v>1.529401527974399</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.724784414803545</v>
@@ -14464,7 +14356,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.580132892612982</v>
+        <v>1.53662273810928</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.922738655899011</v>
@@ -14553,7 +14445,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.578589882182844</v>
+        <v>1.540661311105595</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.868208173583267</v>
@@ -14642,7 +14534,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.581088124057116</v>
+        <v>1.5439920467596</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.686936994558626</v>
@@ -14731,7 +14623,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579748364179443</v>
+        <v>1.544025664967337</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.810083217847384</v>
@@ -14820,7 +14712,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578430475808638</v>
+        <v>1.538769144433746</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.643507351279971</v>
@@ -14909,7 +14801,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556922782740544</v>
+        <v>1.523749785224329</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.870126433095198</v>
@@ -14998,7 +14890,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565519897264303</v>
+        <v>1.526068709376521</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.879158039265242</v>
@@ -15087,7 +14979,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586707135761413</v>
+        <v>1.541492078279784</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.779236472865732</v>
@@ -15176,7 +15068,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.591393602913754</v>
+        <v>1.546627964292593</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.731698457292919</v>
@@ -15265,7 +15157,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.582460550188612</v>
+        <v>1.540804879961592</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.66766851019749</v>
@@ -15354,7 +15246,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.585443220863475</v>
+        <v>1.545261502165734</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.047835831578431</v>
@@ -15443,7 +15335,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586966771188128</v>
+        <v>1.54864308125186</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.658957176356503</v>
@@ -15532,7 +15424,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.590643259055002</v>
+        <v>1.546249604988236</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.708293402233692</v>
@@ -15621,7 +15513,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609796240257575</v>
+        <v>1.562668107344909</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.848588748944035</v>
@@ -15710,7 +15602,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.580733599622927</v>
+        <v>1.545531301676248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.584725082149561</v>
@@ -15799,7 +15691,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.574228629360563</v>
+        <v>1.539126312417952</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.876881034844696</v>
@@ -15888,7 +15780,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.564344598457528</v>
+        <v>1.528880527034549</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.736260435659922</v>
@@ -15977,7 +15869,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.571903020399066</v>
+        <v>1.531534704581554</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.70970215347899</v>
@@ -16066,7 +15958,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.567649035430683</v>
+        <v>1.531900243764294</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.700906801995658</v>
@@ -16155,7 +16047,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578598963180341</v>
+        <v>1.542228775645324</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.887132649767982</v>
@@ -16244,7 +16136,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.587684532432734</v>
+        <v>1.552291242120181</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.174689352801322</v>
@@ -16333,7 +16225,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.58752318809754</v>
+        <v>1.553984825791751</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.288883271771691</v>
@@ -16422,7 +16314,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57335210288305</v>
+        <v>1.543299896089911</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.144821938546583</v>
@@ -16511,7 +16403,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.576388706427851</v>
+        <v>1.540875569691208</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.865488421893251</v>
@@ -16600,7 +16492,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.576351318656367</v>
+        <v>1.537219962803458</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.01072466262633</v>
@@ -16689,7 +16581,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.565954939271564</v>
+        <v>1.532464836751991</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.970697691284833</v>
@@ -16778,7 +16670,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.549373790212407</v>
+        <v>1.518010627003944</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.133444435918878</v>
@@ -16867,7 +16759,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.545400869906433</v>
+        <v>1.517868707414735</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.152270543513109</v>
@@ -16956,7 +16848,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542573150484431</v>
+        <v>1.512627300066149</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.827652234834858</v>
@@ -17242,7 +17134,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.648757613313575</v>
+        <v>1.607402291155361</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.809388810314219</v>
@@ -17331,7 +17223,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.658621579119615</v>
+        <v>1.618097810220606</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.915290184845763</v>
@@ -17420,7 +17312,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.666176881203254</v>
+        <v>1.626650042354187</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.882207121087261</v>
@@ -17509,7 +17401,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.668695932088396</v>
+        <v>1.625380577183397</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.822111324918599</v>
@@ -17598,7 +17490,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663614455886844</v>
+        <v>1.615285258196933</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.847402983656237</v>
@@ -17687,7 +17579,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673978340787891</v>
+        <v>1.626340860064484</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.691776930818186</v>
@@ -17776,7 +17668,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.695114563149951</v>
+        <v>1.643808363234592</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.816316828525483</v>
@@ -17865,7 +17757,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.695615080855624</v>
+        <v>1.649561212987664</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.618208545655844</v>
@@ -17954,7 +17846,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709543190296278</v>
+        <v>1.657280910093391</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.907065536962108</v>
@@ -18043,7 +17935,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.710193588206251</v>
+        <v>1.656635981726647</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.729132969709809</v>
@@ -18132,7 +18024,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.722882448148854</v>
+        <v>1.659364993071411</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.825108009576835</v>
@@ -18221,7 +18113,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.740178520886481</v>
+        <v>1.679388263713992</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.080476285322453</v>
@@ -18310,7 +18202,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.750906060010848</v>
+        <v>1.683691323972635</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.884488323146594</v>
@@ -18399,7 +18291,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.731051657881266</v>
+        <v>1.655531519923991</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.994316891047346</v>
@@ -18488,7 +18380,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.732156724980276</v>
+        <v>1.644105558308502</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.953190718625917</v>
@@ -18577,7 +18469,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669449946150038</v>
+        <v>1.56106634959115</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.496151667943908</v>
@@ -18666,7 +18558,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.661678026692498</v>
+        <v>1.542703034224476</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.120717480051903</v>
@@ -18755,7 +18647,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.657199015826062</v>
+        <v>1.520349589857342</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.359109010306878</v>
@@ -18844,7 +18736,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.667672670719424</v>
+        <v>1.53173369280703</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.304961334185617</v>
@@ -18933,7 +18825,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.672579664331391</v>
+        <v>1.533807347297479</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.280439568370667</v>
@@ -19022,7 +18914,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.669841996629176</v>
+        <v>1.537170221215246</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.060837288266614</v>
@@ -19111,7 +19003,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.664572851479511</v>
+        <v>1.535544940385211</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.526856592231033</v>
@@ -19200,7 +19092,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653552599668281</v>
+        <v>1.52069400056043</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.297972392811631</v>
@@ -19289,7 +19181,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.646476985233297</v>
+        <v>1.518799442234276</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.315510175362029</v>
@@ -19378,7 +19270,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.635300775131612</v>
+        <v>1.51672110844556</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.172481781710835</v>
@@ -19467,7 +19359,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624525688147948</v>
+        <v>1.511864806028117</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.217771181578342</v>
@@ -19556,7 +19448,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.601357276803291</v>
+        <v>1.491570599558586</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.764419413080178</v>
@@ -19645,7 +19537,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.590771420766063</v>
+        <v>1.47495950494604</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.887993625257245</v>
@@ -19734,7 +19626,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.589710258581277</v>
+        <v>1.469740222900119</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.181294622388098</v>
@@ -19823,7 +19715,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.582508465154894</v>
+        <v>1.471724460893521</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.824348450771475</v>
@@ -19912,7 +19804,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586605258458027</v>
+        <v>1.477329238513121</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.90714557244592</v>
@@ -20001,7 +19893,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577729702056881</v>
+        <v>1.471525123729345</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.06781719385355</v>
@@ -20090,7 +19982,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568440861629485</v>
+        <v>1.472432597764785</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.124308201656579</v>
@@ -20179,7 +20071,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562205125466452</v>
+        <v>1.468656250001956</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.213009205363199</v>
@@ -20268,7 +20160,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.564620190194413</v>
+        <v>1.478044998187574</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.170242092091573</v>
@@ -20357,7 +20249,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556056403507943</v>
+        <v>1.469865344333954</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.812139134943499</v>
@@ -20446,7 +20338,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.468618336455786</v>
+        <v>1.404984125296759</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.889138334031304</v>
@@ -20535,7 +20427,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.463319698748829</v>
+        <v>1.406473896082054</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.903617438091593</v>
@@ -20624,7 +20516,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.465619006598826</v>
+        <v>1.408625708789621</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.90537867211197</v>
@@ -20713,7 +20605,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.462192465808901</v>
+        <v>1.409516185278596</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.936304837307409</v>
@@ -20802,7 +20694,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.472831833179024</v>
+        <v>1.415089957954172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.889513365238959</v>
@@ -20891,7 +20783,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480585281139222</v>
+        <v>1.419491623847589</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.868687994966242</v>
@@ -20980,7 +20872,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.480241711480807</v>
+        <v>1.419472687860295</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.922994768342312</v>
@@ -21069,7 +20961,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.476654722990557</v>
+        <v>1.416018726926399</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.876976357559209</v>
@@ -21158,7 +21050,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474398078336854</v>
+        <v>1.415432893283459</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.895711744745499</v>
@@ -21247,7 +21139,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.475729727881797</v>
+        <v>1.418195152326144</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.881390753991666</v>
@@ -21336,7 +21228,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47590956137881</v>
+        <v>1.424888671704259</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.904101829841034</v>
@@ -21425,7 +21317,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477278411164159</v>
+        <v>1.428616100514398</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.886100680531112</v>
@@ -21514,7 +21406,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.470872654023778</v>
+        <v>1.427631894738792</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.870594296765296</v>
@@ -21603,7 +21495,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.469148049673904</v>
+        <v>1.420661439630979</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.869768764287944</v>
@@ -21692,7 +21584,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.469381256010609</v>
+        <v>1.422609442484528</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.932499750309268</v>
@@ -21781,7 +21673,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.55219964738773</v>
+        <v>1.485964312883068</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.426684354578332</v>
@@ -21870,7 +21762,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.566261433613946</v>
+        <v>1.481769804387504</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.370507628352766</v>
@@ -21959,7 +21851,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.566534058742859</v>
+        <v>1.471504670533411</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.394284820157872</v>
@@ -22048,7 +21940,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.572673981574672</v>
+        <v>1.471336320990622</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.243267372286581</v>
@@ -22137,7 +22029,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.569823540746544</v>
+        <v>1.468477712621767</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.395236679016222</v>
@@ -22226,7 +22118,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577517696615208</v>
+        <v>1.474195579775188</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.856750298165646</v>
@@ -22315,7 +22207,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.581411724836399</v>
+        <v>1.483129500669006</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.873372646813874</v>
@@ -22404,7 +22296,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586903723612804</v>
+        <v>1.493098665286299</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.987544025491998</v>
@@ -22493,7 +22385,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586578885945413</v>
+        <v>1.487077652223105</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.284371874161775</v>
@@ -22582,7 +22474,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.584882959903231</v>
+        <v>1.484122509390474</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.213574541843754</v>
@@ -22868,7 +22760,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556690178694669</v>
+        <v>1.512158187104484</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.677601416271531</v>
@@ -22957,7 +22849,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56351170163078</v>
+        <v>1.516390263369233</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.647594520402353</v>
@@ -23046,7 +22938,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.569311509357043</v>
+        <v>1.523541106611939</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.682687123127561</v>
@@ -23135,7 +23027,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572178484545054</v>
+        <v>1.522765335786358</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.686633291943208</v>
@@ -23224,7 +23116,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571835169226309</v>
+        <v>1.518919105849103</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.576763861559141</v>
@@ -23313,7 +23205,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568133942682109</v>
+        <v>1.519382400777406</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.685033147016771</v>
@@ -23402,7 +23294,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.555808344854297</v>
+        <v>1.509133371164439</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.599598345104717</v>
@@ -23491,7 +23383,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561285849772233</v>
+        <v>1.513603195368217</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.458740214258626</v>
@@ -23580,7 +23472,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.562199204815419</v>
+        <v>1.517048248160664</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.583042141689628</v>
@@ -23669,7 +23561,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554790409944505</v>
+        <v>1.507454882297211</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.823825069603971</v>
@@ -23758,7 +23650,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.533467537381938</v>
+        <v>1.488461346241077</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.722419107680047</v>
@@ -23847,7 +23739,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.55110028273345</v>
+        <v>1.499576891796434</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.899413708445229</v>
@@ -23936,7 +23828,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531288745310463</v>
+        <v>1.486803527151726</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.726874149437971</v>
@@ -24025,7 +23917,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.501450350737592</v>
+        <v>1.465867103229294</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.646008456453983</v>
@@ -24114,7 +24006,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.490783492545231</v>
+        <v>1.448035852167159</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.695112824924644</v>
@@ -24203,7 +24095,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.453927086622309</v>
+        <v>1.401460288148758</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.700004659539403</v>
@@ -24292,7 +24184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.444190427938762</v>
+        <v>1.391561736442544</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.550156318443954</v>
@@ -24381,7 +24273,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442841864367991</v>
+        <v>1.387518197251919</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.653004711467047</v>
@@ -24470,7 +24362,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.437286687308523</v>
+        <v>1.382907851424784</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.515481056542258</v>
@@ -24559,7 +24451,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.43396269335087</v>
+        <v>1.39053468918381</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.522505701238368</v>
@@ -24648,7 +24540,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.439593158555817</v>
+        <v>1.392785952397511</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.596796858320496</v>
@@ -24737,7 +24629,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.439734861486302</v>
+        <v>1.389700569081395</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.541028041326654</v>
@@ -24826,7 +24718,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.430662773243673</v>
+        <v>1.386000716241307</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.330058324983511</v>
@@ -24915,7 +24807,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.439686881145865</v>
+        <v>1.394162614775401</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.469824389555497</v>
@@ -25004,7 +24896,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.449351061415654</v>
+        <v>1.405791840302114</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.484543381942123</v>
@@ -25093,7 +24985,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.451201417649665</v>
+        <v>1.40335780968683</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.376076760587051</v>
@@ -25182,7 +25074,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.448149696169582</v>
+        <v>1.396732846539837</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.388447057117936</v>
@@ -25271,7 +25163,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.459806602872869</v>
+        <v>1.399006419387274</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.595745137396346</v>
@@ -25360,7 +25252,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.487812255224327</v>
+        <v>1.420277679529538</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.654704635407463</v>
@@ -25449,7 +25341,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.493240986684284</v>
+        <v>1.42483302671797</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.450849550612849</v>
@@ -25538,7 +25430,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.502592151624311</v>
+        <v>1.434855509286057</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.547494061301006</v>
@@ -25627,7 +25519,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472131312354105</v>
+        <v>1.417898944926909</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.581536895414956</v>
@@ -25716,7 +25608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.474776184878676</v>
+        <v>1.418328978914402</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.443595552345013</v>
@@ -25805,7 +25697,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.46637140451109</v>
+        <v>1.412945062760676</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.555645063343798</v>
@@ -25894,7 +25786,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.463465657666749</v>
+        <v>1.411093710742694</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.343909830158391</v>
@@ -25983,7 +25875,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.465357998961814</v>
+        <v>1.410323939734776</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.636926035584916</v>
@@ -26072,7 +25964,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.47754352062229</v>
+        <v>1.426532778564425</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.582725051985886</v>
@@ -26161,7 +26053,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.466949973805975</v>
+        <v>1.415597716878809</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.44965825892019</v>
@@ -26250,7 +26142,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.463611900207046</v>
+        <v>1.415122358156236</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.507378955901171</v>
@@ -26339,7 +26231,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.455430999292918</v>
+        <v>1.404748264677627</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.475352881560498</v>
@@ -26428,7 +26320,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.471806836760047</v>
+        <v>1.426693059881666</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.374756336726067</v>
@@ -26517,7 +26409,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.446930817168548</v>
+        <v>1.408323158442703</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.562374655534845</v>
@@ -26606,7 +26498,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.442712581274318</v>
+        <v>1.404044510454532</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.509772231418883</v>
@@ -26695,7 +26587,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.440538109996764</v>
+        <v>1.39822081874575</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.40211147199638</v>
@@ -26784,7 +26676,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.438002525462538</v>
+        <v>1.391834568241809</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.496073244341317</v>
@@ -26873,7 +26765,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.458294814447944</v>
+        <v>1.408025603574471</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.312306462692223</v>
@@ -26962,7 +26854,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.458806897003785</v>
+        <v>1.40480101151798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.531216372282087</v>
@@ -27051,7 +26943,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.455337995432519</v>
+        <v>1.406294861510555</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.216444179537233</v>
@@ -27140,7 +27032,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.467585400627906</v>
+        <v>1.41436803257684</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.601801757652618</v>
@@ -27229,7 +27121,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.454372741548641</v>
+        <v>1.405116767408515</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.529636960918921</v>
@@ -27318,7 +27210,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.447673753625834</v>
+        <v>1.401357886678281</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.453947207822266</v>
@@ -27407,7 +27299,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.448102481974114</v>
+        <v>1.402566436585625</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.521291921375143</v>
@@ -27496,7 +27388,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.469967599086049</v>
+        <v>1.418048580162968</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.48972197555346</v>
@@ -27585,7 +27477,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.477015227763488</v>
+        <v>1.419734142370481</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.479704371636851</v>
@@ -27674,7 +27566,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.49323824789624</v>
+        <v>1.43356590980617</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.337894448911657</v>
@@ -27763,7 +27655,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.474498247984126</v>
+        <v>1.412997870904188</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.466144570528304</v>
@@ -27852,7 +27744,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.499093392430498</v>
+        <v>1.425730233524066</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.70577137630558</v>
@@ -27941,7 +27833,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.486719014430593</v>
+        <v>1.423380673609762</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.49410450954406</v>
@@ -28030,7 +27922,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.478837469576953</v>
+        <v>1.419598701467552</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.856536098857748</v>
@@ -28119,7 +28011,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478350209234127</v>
+        <v>1.424120533368116</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.601617957272322</v>
@@ -28208,7 +28100,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.47778805505942</v>
+        <v>1.422673472824307</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.286002716676233</v>
@@ -28494,7 +28386,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.368837106385653</v>
+        <v>1.378077821681413</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.239984110017469</v>
@@ -28583,7 +28475,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.353954442846145</v>
+        <v>1.366812320065133</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.239260116247484</v>
@@ -28672,7 +28564,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.361962356307138</v>
+        <v>1.376681057911303</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.227120058015106</v>
@@ -28761,7 +28653,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.364185292525034</v>
+        <v>1.379958186618793</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.222690711081351</v>
@@ -28850,7 +28742,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.367520096746385</v>
+        <v>1.382318374448317</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.204650049885668</v>
@@ -28939,7 +28831,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.381772225836792</v>
+        <v>1.396895841313549</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.229820398736388</v>
@@ -29028,7 +28920,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.379932217993117</v>
+        <v>1.39811264996245</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.166390949550744</v>
@@ -29117,7 +29009,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.378245486670441</v>
+        <v>1.393143609477376</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.069329017838417</v>
@@ -29206,7 +29098,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.371269804654585</v>
+        <v>1.389368660093063</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.242494555363542</v>
@@ -29295,7 +29187,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.375802961829379</v>
+        <v>1.390573416281169</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.129598014047732</v>
@@ -29384,7 +29276,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.386487730894909</v>
+        <v>1.402135859825732</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.176919920790891</v>
@@ -29473,7 +29365,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.370017680777589</v>
+        <v>1.383571404529827</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.25291763831324</v>
@@ -29562,7 +29454,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.359028813226085</v>
+        <v>1.375578963290969</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.111723444090056</v>
@@ -29651,7 +29543,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.361694686643132</v>
+        <v>1.374262449678996</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.970829540185257</v>
@@ -29740,7 +29632,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.374578745762276</v>
+        <v>1.374927344913357</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.090749708625004</v>
@@ -29829,7 +29721,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.33935790204941</v>
+        <v>1.337807913831598</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.216516767391797</v>
@@ -29918,7 +29810,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.355374568486879</v>
+        <v>1.342389387515677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.352642714363284</v>
@@ -30007,7 +29899,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.335845329714535</v>
+        <v>1.324987728365558</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.305247657628261</v>
@@ -30096,7 +29988,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.327266542943403</v>
+        <v>1.317427019071536</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.3912692376535</v>
@@ -30185,7 +30077,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.319720072852947</v>
+        <v>1.308348591867563</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.399186118229699</v>
@@ -30274,7 +30166,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.310799088621016</v>
+        <v>1.300303998464095</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.1724496578724</v>
@@ -30363,7 +30255,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.307665168425143</v>
+        <v>1.295752593478465</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.408357613308729</v>
@@ -30452,7 +30344,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.299026967733524</v>
+        <v>1.289926141682254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.28331926922609</v>
@@ -30541,7 +30433,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.290450147610224</v>
+        <v>1.283807553854164</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.46833782035542</v>
@@ -30630,7 +30522,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.275492154914186</v>
+        <v>1.269539433478177</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.316723746465838</v>
@@ -30719,7 +30611,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.264571156259233</v>
+        <v>1.256085636235233</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.320196938925843</v>
@@ -30808,7 +30700,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.267983872943594</v>
+        <v>1.261491021771281</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.224479100064128</v>
@@ -30897,7 +30789,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.259516964097685</v>
+        <v>1.251202548136441</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.385462813398146</v>
@@ -30986,7 +30878,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.258356570387093</v>
+        <v>1.252327459992644</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.333010914884417</v>
@@ -31075,7 +30967,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.255586242810726</v>
+        <v>1.252182945065253</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.34238034783804</v>
@@ -31164,7 +31056,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.249155202434285</v>
+        <v>1.245995799006416</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.344982850719654</v>
@@ -31253,7 +31145,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.24824072199823</v>
+        <v>1.247788782202357</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.335802505760741</v>
@@ -31342,7 +31234,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.251549139083865</v>
+        <v>1.250011831984963</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.164258689559007</v>
@@ -31431,7 +31323,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.257312704656745</v>
+        <v>1.256710492386427</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.200373456731239</v>
@@ -31520,7 +31412,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.266697177075153</v>
+        <v>1.267663244233238</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.351487150383819</v>
@@ -31609,7 +31501,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.256116137754311</v>
+        <v>1.257756008886713</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.39512194769174</v>
@@ -31698,7 +31590,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.265673378659447</v>
+        <v>1.269190978165342</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.205005842894942</v>
@@ -31787,7 +31679,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.268369124623832</v>
+        <v>1.270430032299073</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.242665722220046</v>
@@ -31876,7 +31768,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.266049335862018</v>
+        <v>1.267589315163827</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.336300358416385</v>
@@ -31965,7 +31857,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.269858709072443</v>
+        <v>1.272897447873724</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.392814658166087</v>
@@ -32054,7 +31946,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.288001536941838</v>
+        <v>1.292513973334706</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.560525004577858</v>
@@ -32143,7 +32035,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.289511277598596</v>
+        <v>1.290590259875295</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.501500596805754</v>
@@ -32232,7 +32124,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.303002062905073</v>
+        <v>1.305261175563056</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.228512807355762</v>
@@ -32321,7 +32213,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.291207422416822</v>
+        <v>1.293113751123785</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.480240559867902</v>
@@ -32410,7 +32302,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.293676506397413</v>
+        <v>1.294673019854024</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.459212675275021</v>
@@ -32499,7 +32391,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.307803262035828</v>
+        <v>1.300896770540315</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.304138038884194</v>
@@ -32588,7 +32480,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.299199415344813</v>
+        <v>1.295276894765168</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.482242106470038</v>
@@ -32677,7 +32569,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.293546781181877</v>
+        <v>1.29229877636617</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.491290600590097</v>
@@ -32766,7 +32658,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.290021596979021</v>
+        <v>1.288656412963942</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.137007533609407</v>
@@ -32855,7 +32747,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.303671869891849</v>
+        <v>1.303271752352041</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.41899478396273</v>
@@ -32944,7 +32836,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.314100134213401</v>
+        <v>1.311343156370921</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.386515260207855</v>
@@ -33033,7 +32925,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.307264274369441</v>
+        <v>1.307037993831755</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.352007926389836</v>
@@ -33122,7 +33014,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.332818380217972</v>
+        <v>1.330262678352799</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.411416470099855</v>
@@ -33211,7 +33103,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.345339523980573</v>
+        <v>1.342913459551667</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.401314808876074</v>
@@ -33300,7 +33192,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.360735666251916</v>
+        <v>1.355722306444349</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.372316214132957</v>
@@ -33389,7 +33281,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.36636833960912</v>
+        <v>1.359326548773634</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.335792464114439</v>
@@ -33478,7 +33370,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.377972586886402</v>
+        <v>1.372345064717418</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.268027403640483</v>
@@ -33567,7 +33459,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.365047777436407</v>
+        <v>1.361570557093934</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.316325846096512</v>
@@ -33656,7 +33548,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.381615500172076</v>
+        <v>1.381541638745581</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.555234245287428</v>
@@ -33745,7 +33637,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.375263642017946</v>
+        <v>1.370922104265603</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.587745848397117</v>
@@ -33834,7 +33726,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.36543269470451</v>
+        <v>1.362311101869342</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.274264772245321</v>
@@ -34120,7 +34012,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.472770713641945</v>
+        <v>1.457115596001963</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.667143424306546</v>
@@ -34209,7 +34101,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.474728084985004</v>
+        <v>1.456661961465566</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.666920075100917</v>
@@ -34298,7 +34190,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487656757449173</v>
+        <v>1.470521664114014</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.447261778120807</v>
@@ -34387,7 +34279,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.502502116743723</v>
+        <v>1.48112949145099</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.560021224563416</v>
@@ -34476,7 +34368,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502669050791338</v>
+        <v>1.480121547698118</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.587983371510636</v>
@@ -34565,7 +34457,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.512205706423744</v>
+        <v>1.491170860060118</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.587710176767351</v>
@@ -34654,7 +34546,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.525361292482304</v>
+        <v>1.50425013668414</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.657854168967845</v>
@@ -34743,7 +34635,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.532181950939275</v>
+        <v>1.50980272642917</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.402994188630298</v>
@@ -34832,7 +34724,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.534461841702456</v>
+        <v>1.510903359447579</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.649906199119353</v>
@@ -34921,7 +34813,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539006065335184</v>
+        <v>1.514228472909514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.576308685392474</v>
@@ -35010,7 +34902,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.551649800181632</v>
+        <v>1.525335136949885</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.516433674375168</v>
@@ -35099,7 +34991,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.56895195885699</v>
+        <v>1.538480866610464</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.528301510032943</v>
@@ -35188,7 +35080,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.558313164912398</v>
+        <v>1.534845256554372</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.589278577599083</v>
@@ -35277,7 +35169,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551409218652682</v>
+        <v>1.532347291464382</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.412016365772384</v>
@@ -35366,7 +35258,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.566057790419527</v>
+        <v>1.539537664623871</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.492157836461617</v>
@@ -35455,7 +35347,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.56938136918682</v>
+        <v>1.523484829839483</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.43627081484117</v>
@@ -35544,7 +35436,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561547709667743</v>
+        <v>1.515021944086537</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.711393923682632</v>
@@ -35633,7 +35525,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.572460069938804</v>
+        <v>1.513823645448454</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.335224060816655</v>
@@ -35722,7 +35614,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574789592617681</v>
+        <v>1.51032050810278</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.50617928630778</v>
@@ -35811,7 +35703,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577413519200313</v>
+        <v>1.511935149833117</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.557663118696454</v>
@@ -35900,7 +35792,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580744503991581</v>
+        <v>1.512342548073363</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.511359159244371</v>
@@ -35989,7 +35881,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582454322059953</v>
+        <v>1.512199829402524</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.32970950232718</v>
@@ -36078,7 +35970,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570542745425367</v>
+        <v>1.50645955242082</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.399184893711571</v>
@@ -36167,7 +36059,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.562253471601876</v>
+        <v>1.504401928264159</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.442798601354693</v>
@@ -36256,7 +36148,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.543511784863476</v>
+        <v>1.486282872408556</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.292220812675959</v>
@@ -36345,7 +36237,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538066513993455</v>
+        <v>1.481339003891892</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.502047791925357</v>
@@ -36434,7 +36326,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566843279197034</v>
+        <v>1.501347272869178</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.449660418346488</v>
@@ -36523,7 +36415,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.561382579999435</v>
+        <v>1.491732912033189</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.480979260531673</v>
@@ -36612,7 +36504,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574036719198674</v>
+        <v>1.49730515700924</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.773923122663339</v>
@@ -36701,7 +36593,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.555052879615574</v>
+        <v>1.482424403454718</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.506892336236148</v>
@@ -36790,7 +36682,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559419454638253</v>
+        <v>1.493975634862416</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.577892193287624</v>
@@ -36879,7 +36771,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.579230581579564</v>
+        <v>1.506314203185789</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.197121289940995</v>
@@ -36968,7 +36860,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.573353210017034</v>
+        <v>1.512579915107263</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.128640262051321</v>
@@ -37057,7 +36949,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.576844869590482</v>
+        <v>1.511550594309592</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.899641400604558</v>
@@ -37146,7 +37038,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.569952323108525</v>
+        <v>1.512205923784993</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.02022051317287</v>
@@ -37235,7 +37127,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.560779487152093</v>
+        <v>1.501108974569708</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.152083568895193</v>
@@ -37324,7 +37216,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.546724310681086</v>
+        <v>1.492661174963319</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.766659393457434</v>
@@ -37413,7 +37305,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516094357941818</v>
+        <v>1.467043494084935</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.329154160609649</v>
@@ -37502,7 +37394,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.518778346408144</v>
+        <v>1.470339715282915</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.333021354007379</v>
@@ -37591,7 +37483,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527996029499122</v>
+        <v>1.481817360922796</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.374714529438299</v>
@@ -37680,7 +37572,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.537660270315625</v>
+        <v>1.489736888833794</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.365345586304929</v>
@@ -37769,7 +37661,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.542601740235518</v>
+        <v>1.491361306333566</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.32761557531416</v>
@@ -37858,7 +37750,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548649069447229</v>
+        <v>1.489015089125489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.353648878109378</v>
@@ -37947,7 +37839,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551666892275337</v>
+        <v>1.485086141160622</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.375559638169135</v>
@@ -38036,7 +37928,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.562020748711356</v>
+        <v>1.490835655400243</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.399243665009914</v>
@@ -38125,7 +38017,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.557393787353286</v>
+        <v>1.486755211507006</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.241388637873844</v>
@@ -38214,7 +38106,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556206739320296</v>
+        <v>1.487859202140551</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.307343986818278</v>
@@ -38303,7 +38195,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.537607654013771</v>
+        <v>1.477389064162469</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.33333165596814</v>
@@ -38392,7 +38284,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.503412842108035</v>
+        <v>1.454279996495539</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.249836509294699</v>
@@ -38481,7 +38373,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.51050704814615</v>
+        <v>1.45733766419493</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.212488564380287</v>
@@ -38570,7 +38462,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.510800362281429</v>
+        <v>1.460640687636499</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.385723841134524</v>
@@ -38659,7 +38551,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.506981344616101</v>
+        <v>1.455949463016155</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.338717236531819</v>
@@ -38748,7 +38640,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.546822434880523</v>
+        <v>1.482427822111603</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.37512711438496</v>
@@ -38837,7 +38729,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.549276709455043</v>
+        <v>1.484115992105833</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.407198057451789</v>
@@ -38926,7 +38818,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.556595084271155</v>
+        <v>1.484876123125495</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.507907043297118</v>
@@ -39015,7 +38907,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.555044019669648</v>
+        <v>1.480820479161276</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.345331540445417</v>
@@ -39104,7 +38996,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.546492527080642</v>
+        <v>1.475243378319346</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.430794766006827</v>
@@ -39193,7 +39085,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538128318212826</v>
+        <v>1.479774264467579</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.553532487447951</v>
@@ -39282,7 +39174,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.537011415448002</v>
+        <v>1.478709164620953</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.39941689219372</v>
@@ -39371,7 +39263,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.531237618418597</v>
+        <v>1.481155049515084</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.361932841324219</v>
@@ -39460,7 +39352,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.511594389821693</v>
+        <v>1.468531982963885</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.48331219819601</v>
